--- a/01_試験結果集計ツール/10_src/01_解答例_集計_1/in/sample-単体試験項目書.xlsx
+++ b/01_試験結果集計ツール/10_src/01_解答例_集計_1/in/sample-単体試験項目書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B6B7BC5-5338-406B-BA2D-B4FE9D1A8C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C6C90F-850D-4350-98DB-AAC23529F53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1455" yWindow="810" windowWidth="26010" windowHeight="13650" xr2:uid="{F7BA358A-EFBD-4B33-910D-06A67C944869}"/>
+    <workbookView xWindow="1455" yWindow="720" windowWidth="26010" windowHeight="13650" xr2:uid="{F7BA358A-EFBD-4B33-910D-06A67C944869}"/>
   </bookViews>
   <sheets>
     <sheet name="単体試験" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>試験番号</t>
     <rPh sb="0" eb="2">
@@ -424,6 +424,10 @@
     <rPh sb="43" eb="45">
       <t>シュツリョク</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>NG</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -880,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D9AEDC-F159-4846-B552-797ACE0D74E5}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -1071,7 +1075,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>31</v>
